--- a/www.eia.gov/forecasts/steo/xls/Fig24.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig24.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Residential Price</t>
@@ -65,7 +65,7 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
 </sst>
 </file>
@@ -501,13 +501,13 @@
                   <c:v>1.0652888363746671E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1064345945354326E-2</c:v>
+                  <c:v>-8.185096142549142E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6295278707452185E-2</c:v>
+                  <c:v>3.0257233005399176E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4614456781865579E-2</c:v>
+                  <c:v>2.4185998873513137E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,8 +522,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="643733776"/>
-        <c:axId val="643742736"/>
+        <c:axId val="128856208"/>
+        <c:axId val="128856768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1418,13 +1418,13 @@
                   <c:v>12.45</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>12.44125</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>12.028639999999999</c:v>
+                  <c:v>12.215070000000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>#N/A</c:v>
+                  <c:v>12.25662</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>#N/A</c:v>
@@ -2394,79 +2394,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>12.028639999999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.00226</c:v>
+                  <c:v>12.25662</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.298</c:v>
+                  <c:v>12.55918</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.640040000000001</c:v>
+                  <c:v>12.73115</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.587260000000001</c:v>
+                  <c:v>12.63547</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.996549999999999</c:v>
+                  <c:v>13.01451</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>13.05063</c:v>
+                  <c:v>13.043049999999999</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>13.130879999999999</c:v>
+                  <c:v>13.106249999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>13.387549999999999</c:v>
+                  <c:v>13.35501</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>13.46998</c:v>
+                  <c:v>13.433949999999999</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>13.039859999999999</c:v>
+                  <c:v>13.00178</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>12.89692</c:v>
+                  <c:v>13.2156</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>12.458209999999999</c:v>
+                  <c:v>12.64715</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>12.660270000000001</c:v>
+                  <c:v>12.76178</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>12.89983</c:v>
+                  <c:v>13.05621</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>13.06776</c:v>
+                  <c:v>13.169790000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>12.94215</c:v>
+                  <c:v>13.00924</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>13.296430000000001</c:v>
+                  <c:v>13.3367</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>13.28729</c:v>
+                  <c:v>13.309559999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>13.32869</c:v>
+                  <c:v>13.3391</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>13.56612</c:v>
+                  <c:v>13.57114</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>13.642569999999999</c:v>
+                  <c:v>13.64565</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>13.23405</c:v>
+                  <c:v>13.23039</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>13.11969</c:v>
+                  <c:v>13.47226</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>12.719099999999999</c:v>
+                  <c:v>12.93544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,11 +2483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643724256"/>
-        <c:axId val="643724816"/>
+        <c:axId val="128855088"/>
+        <c:axId val="128855648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="643724256"/>
+        <c:axId val="128855088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2504,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643724816"/>
+        <c:crossAx val="128855648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2515,7 +2515,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643724816"/>
+        <c:axId val="128855648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -2542,13 +2542,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643724256"/>
+        <c:crossAx val="128855088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="643733776"/>
+        <c:axId val="128856208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2565,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643742736"/>
+        <c:crossAx val="128856768"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,7 +2573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643742736"/>
+        <c:axId val="128856768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.21000000000000002"/>
@@ -2590,7 +2590,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643733776"/>
+        <c:crossAx val="128856208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3.0000000000000006E-2"/>
@@ -2717,7 +2717,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -3026,7 +3026,7 @@
             <v>2016</v>
           </cell>
           <cell r="G39">
-            <v>-1.1064345945354326E-2</v>
+            <v>-8.185096142549142E-3</v>
           </cell>
         </row>
         <row r="40">
@@ -3043,7 +3043,7 @@
             <v>2017</v>
           </cell>
           <cell r="G40">
-            <v>2.6295278707452185E-2</v>
+            <v>3.0257233005399176E-2</v>
           </cell>
         </row>
         <row r="41">
@@ -3060,7 +3060,7 @@
             <v>2018</v>
           </cell>
           <cell r="G41">
-            <v>2.4614456781865579E-2</v>
+            <v>2.4185998873513137E-2</v>
           </cell>
         </row>
         <row r="42">
@@ -4344,7 +4344,7 @@
             <v>42675</v>
           </cell>
           <cell r="B158">
-            <v>12.44125</v>
+            <v>12.75</v>
           </cell>
           <cell r="C158" t="e">
             <v>#N/A</v>
@@ -4355,21 +4355,21 @@
             <v>42705</v>
           </cell>
           <cell r="B159">
-            <v>12.028639999999999</v>
-          </cell>
-          <cell r="C159">
-            <v>12.028639999999999</v>
+            <v>12.215070000000001</v>
+          </cell>
+          <cell r="C159" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
             <v>42736</v>
           </cell>
-          <cell r="B160" t="e">
-            <v>#N/A</v>
+          <cell r="B160">
+            <v>12.25662</v>
           </cell>
           <cell r="C160">
-            <v>12.00226</v>
+            <v>12.25662</v>
           </cell>
         </row>
         <row r="161">
@@ -4380,7 +4380,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C161">
-            <v>12.298</v>
+            <v>12.55918</v>
           </cell>
         </row>
         <row r="162">
@@ -4391,7 +4391,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C162">
-            <v>12.640040000000001</v>
+            <v>12.73115</v>
           </cell>
         </row>
         <row r="163">
@@ -4402,7 +4402,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C163">
-            <v>12.587260000000001</v>
+            <v>12.63547</v>
           </cell>
         </row>
         <row r="164">
@@ -4413,7 +4413,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C164">
-            <v>12.996549999999999</v>
+            <v>13.01451</v>
           </cell>
         </row>
         <row r="165">
@@ -4424,7 +4424,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C165">
-            <v>13.05063</v>
+            <v>13.043049999999999</v>
           </cell>
         </row>
         <row r="166">
@@ -4435,7 +4435,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C166">
-            <v>13.130879999999999</v>
+            <v>13.106249999999999</v>
           </cell>
         </row>
         <row r="167">
@@ -4446,7 +4446,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C167">
-            <v>13.387549999999999</v>
+            <v>13.35501</v>
           </cell>
         </row>
         <row r="168">
@@ -4457,7 +4457,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C168">
-            <v>13.46998</v>
+            <v>13.433949999999999</v>
           </cell>
         </row>
         <row r="169">
@@ -4468,7 +4468,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C169">
-            <v>13.039859999999999</v>
+            <v>13.00178</v>
           </cell>
         </row>
         <row r="170">
@@ -4479,7 +4479,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C170">
-            <v>12.89692</v>
+            <v>13.2156</v>
           </cell>
         </row>
         <row r="171">
@@ -4490,7 +4490,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C171">
-            <v>12.458209999999999</v>
+            <v>12.64715</v>
           </cell>
         </row>
         <row r="172">
@@ -4501,7 +4501,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C172">
-            <v>12.660270000000001</v>
+            <v>12.76178</v>
           </cell>
         </row>
         <row r="173">
@@ -4512,7 +4512,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C173">
-            <v>12.89983</v>
+            <v>13.05621</v>
           </cell>
         </row>
         <row r="174">
@@ -4523,7 +4523,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C174">
-            <v>13.06776</v>
+            <v>13.169790000000001</v>
           </cell>
         </row>
         <row r="175">
@@ -4534,7 +4534,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C175">
-            <v>12.94215</v>
+            <v>13.00924</v>
           </cell>
         </row>
         <row r="176">
@@ -4545,7 +4545,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C176">
-            <v>13.296430000000001</v>
+            <v>13.3367</v>
           </cell>
         </row>
         <row r="177">
@@ -4556,7 +4556,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C177">
-            <v>13.28729</v>
+            <v>13.309559999999999</v>
           </cell>
         </row>
         <row r="178">
@@ -4567,7 +4567,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C178">
-            <v>13.32869</v>
+            <v>13.3391</v>
           </cell>
         </row>
         <row r="179">
@@ -4578,7 +4578,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C179">
-            <v>13.56612</v>
+            <v>13.57114</v>
           </cell>
         </row>
         <row r="180">
@@ -4589,7 +4589,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C180">
-            <v>13.642569999999999</v>
+            <v>13.64565</v>
           </cell>
         </row>
         <row r="181">
@@ -4600,7 +4600,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C181">
-            <v>13.23405</v>
+            <v>13.23039</v>
           </cell>
         </row>
         <row r="182">
@@ -4611,7 +4611,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C182">
-            <v>13.11969</v>
+            <v>13.47226</v>
           </cell>
         </row>
         <row r="183">
@@ -4622,7 +4622,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="C183">
-            <v>12.719099999999999</v>
+            <v>12.93544</v>
           </cell>
         </row>
       </sheetData>
@@ -5325,11 +5325,11 @@
         <v>2016</v>
       </c>
       <c r="F39" s="9">
-        <v>12.511318881999999</v>
+        <v>12.547745127000001</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" si="0"/>
-        <v>-1.1064345945354326E-2</v>
+        <v>-8.185096142549142E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,11 +5346,11 @@
         <v>2017</v>
       </c>
       <c r="F40" s="9">
-        <v>12.840307499</v>
+        <v>12.927405175000001</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" si="0"/>
-        <v>2.6295278707452185E-2</v>
+        <v>3.0257233005399176E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5367,11 +5367,11 @@
         <v>2018</v>
       </c>
       <c r="F41" s="9">
-        <v>13.156364693</v>
+        <v>13.240067381999999</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" si="0"/>
-        <v>2.4614456781865579E-2</v>
+        <v>2.4185998873513137E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6771,7 +6771,7 @@
         <v>42675</v>
       </c>
       <c r="B158" s="8">
-        <v>12.44125</v>
+        <v>12.75</v>
       </c>
       <c r="C158" s="8" t="e">
         <v>#N/A</v>
@@ -6783,10 +6783,10 @@
         <v>42705</v>
       </c>
       <c r="B159" s="8">
-        <v>12.028639999999999</v>
-      </c>
-      <c r="C159" s="8">
-        <v>12.028639999999999</v>
+        <v>12.215070000000001</v>
+      </c>
+      <c r="C159" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E159" s="9"/>
     </row>
@@ -6794,11 +6794,11 @@
       <c r="A160" s="7">
         <v>42736</v>
       </c>
-      <c r="B160" s="8" t="e">
-        <v>#N/A</v>
+      <c r="B160" s="8">
+        <v>12.25662</v>
       </c>
       <c r="C160" s="8">
-        <v>12.00226</v>
+        <v>12.25662</v>
       </c>
       <c r="E160" s="9"/>
     </row>
@@ -6810,7 +6810,7 @@
         <v>#N/A</v>
       </c>
       <c r="C161" s="8">
-        <v>12.298</v>
+        <v>12.55918</v>
       </c>
       <c r="E161" s="9"/>
     </row>
@@ -6822,7 +6822,7 @@
         <v>#N/A</v>
       </c>
       <c r="C162" s="8">
-        <v>12.640040000000001</v>
+        <v>12.73115</v>
       </c>
       <c r="E162" s="9"/>
     </row>
@@ -6834,7 +6834,7 @@
         <v>#N/A</v>
       </c>
       <c r="C163" s="8">
-        <v>12.587260000000001</v>
+        <v>12.63547</v>
       </c>
       <c r="E163" s="9"/>
     </row>
@@ -6846,7 +6846,7 @@
         <v>#N/A</v>
       </c>
       <c r="C164" s="8">
-        <v>12.996549999999999</v>
+        <v>13.01451</v>
       </c>
       <c r="E164" s="9"/>
     </row>
@@ -6858,7 +6858,7 @@
         <v>#N/A</v>
       </c>
       <c r="C165" s="8">
-        <v>13.05063</v>
+        <v>13.043049999999999</v>
       </c>
       <c r="E165" s="9"/>
     </row>
@@ -6870,7 +6870,7 @@
         <v>#N/A</v>
       </c>
       <c r="C166" s="8">
-        <v>13.130879999999999</v>
+        <v>13.106249999999999</v>
       </c>
       <c r="E166" s="9"/>
     </row>
@@ -6882,7 +6882,7 @@
         <v>#N/A</v>
       </c>
       <c r="C167" s="8">
-        <v>13.387549999999999</v>
+        <v>13.35501</v>
       </c>
       <c r="E167" s="9"/>
     </row>
@@ -6894,7 +6894,7 @@
         <v>#N/A</v>
       </c>
       <c r="C168" s="8">
-        <v>13.46998</v>
+        <v>13.433949999999999</v>
       </c>
       <c r="E168" s="9"/>
     </row>
@@ -6906,7 +6906,7 @@
         <v>#N/A</v>
       </c>
       <c r="C169" s="8">
-        <v>13.039859999999999</v>
+        <v>13.00178</v>
       </c>
       <c r="E169" s="9"/>
     </row>
@@ -6918,7 +6918,7 @@
         <v>#N/A</v>
       </c>
       <c r="C170" s="8">
-        <v>12.89692</v>
+        <v>13.2156</v>
       </c>
       <c r="E170" s="9"/>
     </row>
@@ -6930,7 +6930,7 @@
         <v>#N/A</v>
       </c>
       <c r="C171" s="8">
-        <v>12.458209999999999</v>
+        <v>12.64715</v>
       </c>
       <c r="E171" s="9"/>
     </row>
@@ -6942,7 +6942,7 @@
         <v>#N/A</v>
       </c>
       <c r="C172" s="8">
-        <v>12.660270000000001</v>
+        <v>12.76178</v>
       </c>
       <c r="E172" s="9"/>
     </row>
@@ -6954,7 +6954,7 @@
         <v>#N/A</v>
       </c>
       <c r="C173" s="8">
-        <v>12.89983</v>
+        <v>13.05621</v>
       </c>
       <c r="E173" s="9"/>
     </row>
@@ -6966,7 +6966,7 @@
         <v>#N/A</v>
       </c>
       <c r="C174" s="8">
-        <v>13.06776</v>
+        <v>13.169790000000001</v>
       </c>
       <c r="E174" s="9"/>
     </row>
@@ -6978,7 +6978,7 @@
         <v>#N/A</v>
       </c>
       <c r="C175" s="8">
-        <v>12.94215</v>
+        <v>13.00924</v>
       </c>
       <c r="E175" s="9"/>
     </row>
@@ -6990,7 +6990,7 @@
         <v>#N/A</v>
       </c>
       <c r="C176" s="8">
-        <v>13.296430000000001</v>
+        <v>13.3367</v>
       </c>
       <c r="E176" s="9"/>
     </row>
@@ -7002,7 +7002,7 @@
         <v>#N/A</v>
       </c>
       <c r="C177" s="8">
-        <v>13.28729</v>
+        <v>13.309559999999999</v>
       </c>
       <c r="E177" s="9"/>
     </row>
@@ -7014,7 +7014,7 @@
         <v>#N/A</v>
       </c>
       <c r="C178" s="8">
-        <v>13.32869</v>
+        <v>13.3391</v>
       </c>
       <c r="E178" s="9"/>
     </row>
@@ -7026,7 +7026,7 @@
         <v>#N/A</v>
       </c>
       <c r="C179" s="8">
-        <v>13.56612</v>
+        <v>13.57114</v>
       </c>
       <c r="E179" s="9"/>
     </row>
@@ -7038,7 +7038,7 @@
         <v>#N/A</v>
       </c>
       <c r="C180" s="8">
-        <v>13.642569999999999</v>
+        <v>13.64565</v>
       </c>
       <c r="E180" s="9"/>
     </row>
@@ -7050,7 +7050,7 @@
         <v>#N/A</v>
       </c>
       <c r="C181" s="8">
-        <v>13.23405</v>
+        <v>13.23039</v>
       </c>
       <c r="E181" s="9"/>
     </row>
@@ -7062,7 +7062,7 @@
         <v>#N/A</v>
       </c>
       <c r="C182" s="8">
-        <v>13.11969</v>
+        <v>13.47226</v>
       </c>
       <c r="E182" s="9"/>
     </row>
@@ -7074,7 +7074,7 @@
         <v>#N/A</v>
       </c>
       <c r="C183" s="13">
-        <v>12.719099999999999</v>
+        <v>12.93544</v>
       </c>
       <c r="E183" s="9"/>
     </row>
